--- a/sinkhole_data/구별/동래구.xlsx
+++ b/sinkhole_data/구별/동래구.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dogs0\OneDrive\바탕 화면\2025 전국대학생 CM•시공 경진대회\싱크홀 데이터\구별\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2EC437C-F16F-4BE3-882E-2C21C95FF934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BFBAC08-DC8D-4117-8D61-82DE3AB0A80F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="11630" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,109 +22,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
   <si>
-    <t>부산광역시 동래구 반송로 202(cu편의점 일원)</t>
-  </si>
-  <si>
-    <t>기타</t>
-  </si>
-  <si>
-    <t>확인굴착 시행 및 복구</t>
-  </si>
-  <si>
-    <t>부산광역시 동래구 온천동 1646 ( 백옥사우나 일원)</t>
-  </si>
-  <si>
-    <t>기타매설물 손상</t>
-  </si>
-  <si>
-    <t>되메우기 및 도로재포장 완료</t>
-  </si>
-  <si>
-    <t>부산광역시 동래구 번영로 서울방향 원동IC 300m 지난지점 1차로</t>
-  </si>
-  <si>
-    <t>응급복구 완료(2018.7.11) 지반침하위험도평가 완료(2018.12.11) 도로 함몰부 항구복구 추진(2019년 이후)</t>
-  </si>
-  <si>
-    <t>부산광역시 동래구 온천동 1134-26번지</t>
-  </si>
-  <si>
-    <t>하수관 손상</t>
-  </si>
-  <si>
-    <t>관로 정비 및 복구 완료</t>
-  </si>
-  <si>
-    <t>부산광역시 동래구 명서로 182</t>
-  </si>
-  <si>
-    <t>하수박스 벽체 보수 및 복구완료</t>
-  </si>
-  <si>
-    <t>부산광역시 동래구 우장춘로 67번길 2</t>
-  </si>
-  <si>
-    <t>부산광역시 동래구 명륜동 386 동래전화국</t>
-  </si>
-  <si>
-    <t>부산광역시 동래구 미남로130</t>
-  </si>
-  <si>
-    <t>임시복구 후 관로정비 완료</t>
-  </si>
-  <si>
-    <t>부산광역시 동래구 명륜동 652-24</t>
-  </si>
-  <si>
-    <t>되메우기 재 시공 및 포장 복구완료</t>
-  </si>
-  <si>
-    <t>부산광역시 동래구 사직동 802-4번지 일원</t>
-  </si>
-  <si>
-    <t>다짐(되메우기) 불량</t>
-  </si>
-  <si>
-    <t>굴착부분 되메우기 및 포장복구 완료</t>
-  </si>
-  <si>
-    <t>부산광역시 동래구 명륜동 632-1번지 일원</t>
-  </si>
-  <si>
-    <t>굴착구간 전폭 아스팔트 절삭 후 덧씌우기</t>
-  </si>
-  <si>
-    <t>부산광역시 동래구 안락동 안락동 732-1 인근 (동래벽산아파트 앞 횡단보도)</t>
-  </si>
-  <si>
-    <t>흙 다지기 및 되메우기 재시공 및 포장 복구 완료</t>
-  </si>
-  <si>
-    <t>부산광역시 동래구 온천동 1441-13번지</t>
-  </si>
-  <si>
-    <t>지반침하발생구간 복구완료</t>
-  </si>
-  <si>
-    <t>부산광역시 동래구 사직동 981-99번지</t>
-  </si>
-  <si>
-    <t>기타매설공사 부실</t>
-  </si>
-  <si>
-    <t>착부분 되메우기 재시공 및 포장복구 완료 등</t>
-  </si>
-  <si>
     <t>date</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>location</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>reason</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>width</t>
@@ -137,7 +44,7 @@
   </si>
   <si>
     <t>method</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>lon</t>
@@ -146,19 +53,3132 @@
     <t>lat</t>
   </si>
   <si>
-    <t>상수도관 및 통신관: 누수 및 관로파손 확인 안됨 배수설비관, 도시가스관: 함몰구간 주변 관로 없음 도시철도 동래역 6번출구 주변 매몰된 H파일 및 토류벽 확인됨 해당구간 GPR 탐사결과, 해당구간 공동 없음 되메우기 복구 완료</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부산광역시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>동래구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>반송로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 202(cu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>편의점</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기타</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확인굴착</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시행</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>복구</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부산광역시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>동래구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>온천동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1646 ( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>백옥사우나</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기타매설물</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>손상</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>되메우기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>도로재포장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완료</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부산광역시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>동래구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>번영로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>서울방향</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>원동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">IC 300m </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지난지점</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>차로</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>응급복구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(2018.7.11) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지반침하위험도평가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(2018.12.11) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>도로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>함몰부</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>항구복구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추진</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(2019</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>년</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이후</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부산광역시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>동래구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>온천동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1134-26</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>번지</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하수관</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>손상</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정비</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>복구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완료</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부산광역시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>동래구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>명서로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 182</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하수박스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>벽체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>복구완료</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부산광역시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>동래구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>우장춘로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 67</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>번길</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부산광역시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>동래구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>명륜동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 386 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>동래전화국</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부산광역시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>동래구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>미남로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>130</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>임시복구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>후</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관로정비</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완료</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부산광역시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>동래구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>명륜동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 652-24</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>되메우기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>재</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시공</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>포장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>복구완료</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부산광역시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>동래구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사직동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 802-4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>번지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일원</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다짐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>되메우기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>불량</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>굴착부분</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>되메우기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>포장복구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완료</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부산광역시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>동래구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>명륜동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 632-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>번지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일원</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>굴착구간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전폭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아스팔트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>절삭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>후</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>덧씌우기</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부산광역시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>동래구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>안락동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>안락동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 732-1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인근</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>동래벽산아파트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>앞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>횡단보도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>흙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다지기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>되메우기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>재시공</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>포장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>복구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완료</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부산광역시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>동래구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>온천동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1441-13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>번지</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지반침하발생구간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>복구완료</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부산광역시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>동래구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사직동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 981-99</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>번지</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기타매설공사</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부실</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>착부분</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>되메우기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>재시공</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>포장복구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상수도관</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>통신관</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>누수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관로파손</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>안됨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>배수설비관</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>도시가스관</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>함몰구간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주변</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>없음</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>도시철도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>동래역</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>번출구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주변</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매몰된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>토류벽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확인됨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당구간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> GPR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>탐사결과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당구간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>없음</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>되메우기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>복구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완료</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,26 +3187,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -205,17 +3208,22 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="8"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Noto Sans KR"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Noto Sans KR"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -246,7 +3254,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -270,24 +3278,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFDDDDDD"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFDDDDDD"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF333333"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFDDDDDD"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFDDDDDD"/>
-      </left>
+      <left/>
       <right style="medium">
         <color rgb="FFDDDDDD"/>
       </right>
@@ -303,25 +3294,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -629,500 +3626,499 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.58203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.4140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.08203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="182.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="80.1640625" customWidth="1"/>
+    <col min="8" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>39</v>
+    <row r="1" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
         <v>43201</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4">
         <v>2</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="4">
         <v>2.5</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="4">
         <v>1.5</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="6">
+      <c r="G2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="7">
         <v>129.09728105194199</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="7">
         <v>35.198873655415298</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
         <v>43250</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="B3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="4">
         <v>1</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="4">
         <v>2</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="4">
         <v>1</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="6">
+      <c r="G3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="7">
         <v>129.058840251622</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="7">
         <v>35.204327762179503</v>
       </c>
-      <c r="J3" s="6"/>
+      <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="1">
+      <c r="A4" s="3">
         <v>43292</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="B4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="4">
         <v>3.5</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="4">
         <v>3.5</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="4">
         <v>3.6</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" t="s">
-        <v>41</v>
+      <c r="G4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="1">
+      <c r="A5" s="3">
         <v>43558</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="B5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="4">
         <v>1</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="4">
         <v>3</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="4">
         <v>1.5</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="6">
+      <c r="G5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="7">
         <v>129.06283647989801</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="7">
         <v>35.211261694683699</v>
       </c>
-      <c r="J5" s="6"/>
+      <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="1">
+      <c r="A6" s="3">
         <v>43566</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="B6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="4">
         <v>2</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="4">
         <v>3</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="4">
         <v>1.5</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="6">
+      <c r="G6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="7">
         <v>129.10180725050901</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="7">
         <v>35.207085709124101</v>
       </c>
-      <c r="J6" s="6"/>
+      <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="1">
+      <c r="A7" s="3">
         <v>43578</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="B7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="4">
         <v>1</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="4">
         <v>1</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="4">
         <v>1</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="6">
+      <c r="G7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="7">
         <v>129.071588105324</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="7">
         <v>35.213869736942399</v>
       </c>
-      <c r="J7" s="6"/>
+      <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="1">
+      <c r="A8" s="3">
         <v>43598</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="B8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="4">
         <v>0.5</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="4">
         <v>2</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="4">
         <v>1</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="6">
+      <c r="G8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="7">
         <v>129.083078550896</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="7">
         <v>35.2041743700049</v>
       </c>
-      <c r="J8" s="6"/>
+      <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="1">
+      <c r="A9" s="3">
         <v>43638</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="B9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="4">
         <v>2</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="4">
         <v>3</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="4">
         <v>1</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="6">
+      <c r="G9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="7">
         <v>129.069763798173</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="7">
         <v>35.2055923155798</v>
       </c>
-      <c r="J9" s="6"/>
+      <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="1">
+      <c r="A10" s="3">
         <v>44019</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="4">
         <v>1</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E10" s="4">
         <v>1</v>
       </c>
-      <c r="E10" s="2">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2">
+      <c r="F10" s="4">
         <v>1.5</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="6">
+      <c r="G10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="7">
         <v>129.079388438715</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="7">
         <v>35.210158391348102</v>
       </c>
-      <c r="J10" s="6"/>
+      <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="1">
+      <c r="A11" s="3">
         <v>44055</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="B11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="4">
         <v>0.8</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="4">
         <v>0.8</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="4">
         <v>2</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="6">
+      <c r="G11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="7">
         <v>129.06160075495399</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="7">
         <v>35.195827927563897</v>
       </c>
-      <c r="J11" s="6"/>
+      <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="1">
+      <c r="A12" s="3">
         <v>44414</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="4">
         <v>1</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E12" s="4">
         <v>1</v>
       </c>
-      <c r="E12" s="2">
-        <v>1</v>
-      </c>
-      <c r="F12" s="2">
+      <c r="F12" s="4">
         <v>0.8</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="6">
+      <c r="G12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="7">
         <v>129.08202346773399</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="7">
         <v>35.207571842719901</v>
       </c>
-      <c r="J12" s="6"/>
+      <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="1">
+      <c r="A13" s="3">
         <v>44753</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="B13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="4">
         <v>0.1</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="4">
         <v>0.1</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="4">
         <v>1.33</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" s="6">
+      <c r="G13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="7">
         <v>129.097850264589</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="7">
         <v>35.195394364963299</v>
       </c>
-      <c r="J13" s="6"/>
+      <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="1">
+      <c r="A14" s="3">
         <v>45287</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="2">
+      <c r="B14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="4">
         <v>0.6</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="4">
         <v>1</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="4">
         <v>2.6</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="6">
+      <c r="G14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="7">
         <v>129.07658995201399</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="7">
         <v>35.2046102836876</v>
       </c>
-      <c r="J14" s="6"/>
+      <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="1">
+      <c r="A15" s="3">
         <v>45421</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="2">
+      <c r="B15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="4">
         <v>1</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="4">
         <v>1</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="4">
         <v>0.2</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="6">
+      <c r="G15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="7">
         <v>129.05329181771299</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="7">
         <v>35.198068852621702</v>
       </c>
-      <c r="J15" s="6"/>
+      <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="1">
+      <c r="A16" s="3">
         <v>45476</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="B16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="E16" s="4">
         <v>1</v>
       </c>
-      <c r="D16" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="E16" s="2">
-        <v>1</v>
-      </c>
-      <c r="F16" s="2">
+      <c r="F16" s="4">
         <v>2</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" s="6">
+      <c r="G16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="7">
         <v>129.07658995201399</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="7">
         <v>35.2046102836876</v>
       </c>
-      <c r="J16" s="6"/>
+      <c r="J16" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>